--- a/Data/Assumption/Region_Tech/Region1.xlsx
+++ b/Data/Assumption/Region_Tech/Region1.xlsx
@@ -766,8 +766,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J53"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A19" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A47" sqref="A47:A52"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="O31" sqref="O31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -870,7 +870,7 @@
         <v>30</v>
       </c>
       <c r="H3" s="4">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I3" s="4">
         <v>0</v>
@@ -902,7 +902,7 @@
         <v>30</v>
       </c>
       <c r="H4" s="4">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I4" s="4">
         <v>0</v>
@@ -934,7 +934,7 @@
         <v>30</v>
       </c>
       <c r="H5" s="4">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I5" s="4">
         <v>0</v>
@@ -966,7 +966,7 @@
         <v>30</v>
       </c>
       <c r="H6" s="4">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I6" s="4">
         <v>0</v>
@@ -998,7 +998,7 @@
         <v>30</v>
       </c>
       <c r="H7" s="4">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I7" s="4">
         <v>85</v>
@@ -1030,7 +1030,7 @@
         <v>30</v>
       </c>
       <c r="H8" s="4">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I8" s="4">
         <v>90</v>
@@ -1062,7 +1062,7 @@
         <v>30</v>
       </c>
       <c r="H9" s="4">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I9" s="4">
         <v>85</v>
@@ -1094,7 +1094,7 @@
         <v>40</v>
       </c>
       <c r="H10" s="4">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I10" s="4">
         <v>0</v>
@@ -1126,7 +1126,7 @@
         <v>40</v>
       </c>
       <c r="H11" s="4">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I11" s="4">
         <v>0</v>
@@ -1158,7 +1158,7 @@
         <v>40</v>
       </c>
       <c r="H12" s="4">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I12" s="4">
         <v>0</v>
@@ -1190,7 +1190,7 @@
         <v>40</v>
       </c>
       <c r="H13" s="4">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I13" s="4">
         <v>0</v>
@@ -1222,7 +1222,7 @@
         <v>40</v>
       </c>
       <c r="H14" s="4">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I14" s="4">
         <v>85</v>
@@ -1254,7 +1254,7 @@
         <v>20</v>
       </c>
       <c r="H15" s="4">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="I15" s="4">
         <v>0</v>
@@ -1286,7 +1286,7 @@
         <v>25</v>
       </c>
       <c r="H16" s="4">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I16" s="4">
         <v>0</v>
@@ -1318,7 +1318,7 @@
         <v>25</v>
       </c>
       <c r="H17" s="4">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I17" s="4">
         <v>85</v>
@@ -1350,7 +1350,7 @@
         <v>25</v>
       </c>
       <c r="H18" s="4">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I18" s="4">
         <v>95</v>
@@ -1382,7 +1382,7 @@
         <v>75</v>
       </c>
       <c r="H19" s="4">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="I19" s="4">
         <v>0</v>
@@ -1414,7 +1414,7 @@
         <v>0</v>
       </c>
       <c r="H20" s="4">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="I20" s="4">
         <v>0</v>
@@ -1446,7 +1446,7 @@
         <v>0</v>
       </c>
       <c r="H21" s="4">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="I21" s="4">
         <v>0</v>
@@ -1478,7 +1478,7 @@
         <v>0</v>
       </c>
       <c r="H22" s="4">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="I22" s="4">
         <v>85</v>
@@ -1990,7 +1990,7 @@
         <v>0</v>
       </c>
       <c r="H38" s="4">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="I38" s="4">
         <v>0</v>
@@ -2118,7 +2118,7 @@
         <v>20</v>
       </c>
       <c r="H42" s="4">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I42" s="4">
         <v>0</v>
@@ -2150,7 +2150,7 @@
         <v>30</v>
       </c>
       <c r="H43" s="4">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I43" s="4">
         <v>0</v>
@@ -2182,7 +2182,7 @@
         <v>30</v>
       </c>
       <c r="H44" s="4">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I44" s="4">
         <v>0</v>
@@ -2214,7 +2214,7 @@
         <v>30</v>
       </c>
       <c r="H45" s="4">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I45" s="4">
         <v>85</v>
@@ -2246,7 +2246,7 @@
         <v>30</v>
       </c>
       <c r="H46" s="4">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I46" s="4">
         <v>0</v>
@@ -2278,7 +2278,7 @@
         <v>30</v>
       </c>
       <c r="H47" s="4">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I47" s="4">
         <v>0</v>
@@ -2310,7 +2310,7 @@
         <v>30</v>
       </c>
       <c r="H48" s="4">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I48" s="4">
         <v>0</v>
@@ -2342,7 +2342,7 @@
         <v>25</v>
       </c>
       <c r="H49" s="4">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I49" s="4">
         <v>0</v>
@@ -2374,7 +2374,7 @@
         <v>25</v>
       </c>
       <c r="H50" s="4">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I50" s="4">
         <v>0</v>
@@ -2406,7 +2406,7 @@
         <v>30</v>
       </c>
       <c r="H51" s="4">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I51" s="4">
         <v>85</v>
@@ -2438,7 +2438,7 @@
         <v>25</v>
       </c>
       <c r="H52" s="4">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I52" s="4">
         <v>85</v>
@@ -2470,7 +2470,7 @@
         <v>10</v>
       </c>
       <c r="H53" s="4">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="I53" s="4">
         <v>0</v>

--- a/Data/Assumption/Region_Tech/Region1.xlsx
+++ b/Data/Assumption/Region_Tech/Region1.xlsx
@@ -767,7 +767,7 @@
   <dimension ref="A1:J53"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="O31" sqref="O31"/>
+      <selection activeCell="M22" sqref="M22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1414,7 +1414,7 @@
         <v>0</v>
       </c>
       <c r="H20" s="4">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="I20" s="4">
         <v>0</v>
@@ -1446,7 +1446,7 @@
         <v>0</v>
       </c>
       <c r="H21" s="4">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="I21" s="4">
         <v>0</v>
@@ -1478,7 +1478,7 @@
         <v>0</v>
       </c>
       <c r="H22" s="4">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="I22" s="4">
         <v>85</v>

--- a/Data/Assumption/Region_Tech/Region1.xlsx
+++ b/Data/Assumption/Region_Tech/Region1.xlsx
@@ -462,7 +462,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="一般" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -478,7 +478,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -767,7 +767,7 @@
   <dimension ref="A1:J53"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="M22" sqref="M22"/>
+      <selection activeCell="B45" sqref="B45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2132,7 +2132,7 @@
         <v>61</v>
       </c>
       <c r="B43" s="4">
-        <v>250</v>
+        <v>100</v>
       </c>
       <c r="C43" s="4">
         <v>1</v>
@@ -2228,7 +2228,7 @@
         <v>64</v>
       </c>
       <c r="B46" s="4">
-        <v>250</v>
+        <v>100</v>
       </c>
       <c r="C46" s="4">
         <v>1</v>
@@ -2260,7 +2260,7 @@
         <v>108</v>
       </c>
       <c r="B47" s="4">
-        <v>250</v>
+        <v>100</v>
       </c>
       <c r="C47" s="4">
         <v>1</v>
@@ -2292,7 +2292,7 @@
         <v>109</v>
       </c>
       <c r="B48" s="4">
-        <v>250</v>
+        <v>100</v>
       </c>
       <c r="C48" s="4">
         <v>1</v>
@@ -2324,7 +2324,7 @@
         <v>110</v>
       </c>
       <c r="B49" s="4">
-        <v>350</v>
+        <v>100</v>
       </c>
       <c r="C49" s="4">
         <v>1</v>
@@ -2356,7 +2356,7 @@
         <v>111</v>
       </c>
       <c r="B50" s="4">
-        <v>350</v>
+        <v>100</v>
       </c>
       <c r="C50" s="4">
         <v>1</v>
@@ -2388,7 +2388,7 @@
         <v>112</v>
       </c>
       <c r="B51" s="4">
-        <v>250</v>
+        <v>100</v>
       </c>
       <c r="C51" s="4">
         <v>1</v>
@@ -2420,7 +2420,7 @@
         <v>113</v>
       </c>
       <c r="B52" s="4">
-        <v>350</v>
+        <v>100</v>
       </c>
       <c r="C52" s="4">
         <v>1</v>
